--- a/eith_seminar/list_of_home.xlsx
+++ b/eith_seminar/list_of_home.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klimbondarenko/Desktop/Обучение/python/8seminar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klimbondarenko/Desktop/Обучение/python/Hometask /eith_seminar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C365D1-B36B-174E-B530-AC9EBD2BB8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A2E49F-662E-8B47-AFC0-569A13423F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{908CC760-ACDD-9D43-ACCE-9AB274F55ECC}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15700" xr2:uid="{908CC760-ACDD-9D43-ACCE-9AB274F55ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>без изъянов</t>
   </si>
   <si>
-    <t>Духовой шкаф электрический</t>
-  </si>
-  <si>
     <t>Без повреждений, есть застаревшие загрязнения. Отображено на фото</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Стол журнальный. Цельное дерево.</t>
+  </si>
+  <si>
+    <t>Духовой шкаф электрический с шупом, 3 поддона, 1 решетка</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,30 +522,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -582,10 +582,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -602,10 +602,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -622,19 +622,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
       </c>
       <c r="F6" s="2">
         <v>30000</v>
@@ -642,19 +642,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
       </c>
       <c r="F7" s="2">
         <v>2000</v>
@@ -662,19 +662,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2">
         <v>40000</v>
@@ -682,19 +682,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2">
         <v>20000</v>
@@ -702,19 +702,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2">
         <v>15000</v>
@@ -722,19 +722,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2">
         <v>12000</v>
@@ -742,19 +742,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>24</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
       </c>
       <c r="F12" s="2">
         <v>40000</v>
@@ -762,19 +762,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2">
         <v>5000</v>
@@ -782,19 +782,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2">
         <v>4000</v>
@@ -802,19 +802,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2">
         <v>40000</v>
@@ -822,19 +822,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2">
         <v>15000</v>
@@ -842,19 +842,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" s="2">
         <v>10000</v>
